--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Cd63</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>235.090224224411</v>
+        <v>2.315901</v>
       </c>
       <c r="H2">
-        <v>235.090224224411</v>
+        <v>6.947703</v>
       </c>
       <c r="I2">
-        <v>0.9117939467075504</v>
+        <v>0.008788026127878068</v>
       </c>
       <c r="J2">
-        <v>0.9117939467075504</v>
+        <v>0.008788026127878067</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.52059044173811</v>
+        <v>7.221999999999999</v>
       </c>
       <c r="N2">
-        <v>2.52059044173811</v>
+        <v>21.666</v>
       </c>
       <c r="O2">
-        <v>0.003570938832631179</v>
+        <v>0.009636415263395938</v>
       </c>
       <c r="P2">
-        <v>0.003570938832631179</v>
+        <v>0.009636415263395938</v>
       </c>
       <c r="Q2">
-        <v>592.5661721261195</v>
+        <v>16.72543702199999</v>
       </c>
       <c r="R2">
-        <v>592.5661721261195</v>
+        <v>150.528933198</v>
       </c>
       <c r="S2">
-        <v>0.003255960411656036</v>
+        <v>8.468506911380652E-05</v>
       </c>
       <c r="T2">
-        <v>0.003255960411656036</v>
+        <v>8.468506911380649E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>235.090224224411</v>
+        <v>2.315901</v>
       </c>
       <c r="H3">
-        <v>235.090224224411</v>
+        <v>6.947703</v>
       </c>
       <c r="I3">
-        <v>0.9117939467075504</v>
+        <v>0.008788026127878068</v>
       </c>
       <c r="J3">
-        <v>0.9117939467075504</v>
+        <v>0.008788026127878067</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>190.705679584673</v>
+        <v>191.3804573333333</v>
       </c>
       <c r="N3">
-        <v>190.705679584673</v>
+        <v>574.141372</v>
       </c>
       <c r="O3">
-        <v>0.2701741249017177</v>
+        <v>0.2553616117644182</v>
       </c>
       <c r="P3">
-        <v>0.2701741249017177</v>
+        <v>0.2553616117644183</v>
       </c>
       <c r="Q3">
-        <v>44833.04097442945</v>
+        <v>443.218192518724</v>
       </c>
       <c r="R3">
-        <v>44833.04097442945</v>
+        <v>3988.963732668516</v>
       </c>
       <c r="S3">
-        <v>0.2463431316423958</v>
+        <v>0.002244124516242763</v>
       </c>
       <c r="T3">
-        <v>0.2463431316423958</v>
+        <v>0.002244124516242763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>235.090224224411</v>
+        <v>2.315901</v>
       </c>
       <c r="H4">
-        <v>235.090224224411</v>
+        <v>6.947703</v>
       </c>
       <c r="I4">
-        <v>0.9117939467075504</v>
+        <v>0.008788026127878068</v>
       </c>
       <c r="J4">
-        <v>0.9117939467075504</v>
+        <v>0.008788026127878067</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.281806503161</v>
+        <v>133.9193763333333</v>
       </c>
       <c r="N4">
-        <v>115.281806503161</v>
+        <v>401.758129</v>
       </c>
       <c r="O4">
-        <v>0.1633205747039737</v>
+        <v>0.1786904904684296</v>
       </c>
       <c r="P4">
-        <v>0.1633205747039737</v>
+        <v>0.1786904904684296</v>
       </c>
       <c r="Q4">
-        <v>27101.62573982328</v>
+        <v>310.144017569743</v>
       </c>
       <c r="R4">
-        <v>27101.62573982328</v>
+        <v>2791.296158127687</v>
       </c>
       <c r="S4">
-        <v>0.1489147113878815</v>
+        <v>0.001570336699039906</v>
       </c>
       <c r="T4">
-        <v>0.1489147113878815</v>
+        <v>0.001570336699039905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>235.090224224411</v>
+        <v>2.315901</v>
       </c>
       <c r="H5">
-        <v>235.090224224411</v>
+        <v>6.947703</v>
       </c>
       <c r="I5">
-        <v>0.9117939467075504</v>
+        <v>0.008788026127878068</v>
       </c>
       <c r="J5">
-        <v>0.9117939467075504</v>
+        <v>0.008788026127878067</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>133.445931852834</v>
+        <v>144.2634733333333</v>
       </c>
       <c r="N5">
-        <v>133.445931852834</v>
+        <v>432.79042</v>
       </c>
       <c r="O5">
-        <v>0.1890538233499539</v>
+        <v>0.1924927632760795</v>
       </c>
       <c r="P5">
-        <v>0.1890538233499539</v>
+        <v>0.1924927632760795</v>
       </c>
       <c r="Q5">
-        <v>31371.83404111822</v>
+        <v>334.09992215614</v>
       </c>
       <c r="R5">
-        <v>31371.83404111822</v>
+        <v>3006.89929940526</v>
       </c>
       <c r="S5">
-        <v>0.1723781317324065</v>
+        <v>0.001691631433097635</v>
       </c>
       <c r="T5">
-        <v>0.1723781317324065</v>
+        <v>0.001691631433097634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>235.090224224411</v>
+        <v>2.315901</v>
       </c>
       <c r="H6">
-        <v>235.090224224411</v>
+        <v>6.947703</v>
       </c>
       <c r="I6">
-        <v>0.9117939467075504</v>
+        <v>0.008788026127878068</v>
       </c>
       <c r="J6">
-        <v>0.9117939467075504</v>
+        <v>0.008788026127878067</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>144.602362159017</v>
+        <v>147.2274146666667</v>
       </c>
       <c r="N6">
-        <v>144.602362159017</v>
+        <v>441.682244</v>
       </c>
       <c r="O6">
-        <v>0.2048592194008969</v>
+        <v>0.1964475915098574</v>
       </c>
       <c r="P6">
-        <v>0.2048592194008969</v>
+        <v>0.1964475915098574</v>
       </c>
       <c r="Q6">
-        <v>33994.60174334279</v>
+        <v>340.964116853948</v>
       </c>
       <c r="R6">
-        <v>33994.60174334279</v>
+        <v>3068.677051685532</v>
       </c>
       <c r="S6">
-        <v>0.1867893961769718</v>
+        <v>0.001726386566947344</v>
       </c>
       <c r="T6">
-        <v>0.1867893961769718</v>
+        <v>0.001726386566947344</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>235.090224224411</v>
+        <v>2.315901</v>
       </c>
       <c r="H7">
-        <v>235.090224224411</v>
+        <v>6.947703</v>
       </c>
       <c r="I7">
-        <v>0.9117939467075504</v>
+        <v>0.008788026127878068</v>
       </c>
       <c r="J7">
-        <v>0.9117939467075504</v>
+        <v>0.008788026127878067</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>119.305745803163</v>
+        <v>125.4360933333333</v>
       </c>
       <c r="N7">
-        <v>119.305745803163</v>
+        <v>376.30828</v>
       </c>
       <c r="O7">
-        <v>0.1690213188108265</v>
+        <v>0.1673711277178193</v>
       </c>
       <c r="P7">
-        <v>0.1690213188108265</v>
+        <v>0.1673711277178193</v>
       </c>
       <c r="Q7">
-        <v>28047.61453212617</v>
+        <v>290.49757398676</v>
       </c>
       <c r="R7">
-        <v>28047.61453212617</v>
+        <v>2614.47816588084</v>
       </c>
       <c r="S7">
-        <v>0.1541126153562386</v>
+        <v>0.001470861843436613</v>
       </c>
       <c r="T7">
-        <v>0.1541126153562386</v>
+        <v>0.001470861843436613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.98792396204692</v>
+        <v>235.3348033333333</v>
       </c>
       <c r="H8">
-        <v>1.98792396204692</v>
+        <v>706.00441</v>
       </c>
       <c r="I8">
-        <v>0.007710133592705382</v>
+        <v>0.8930124389999315</v>
       </c>
       <c r="J8">
-        <v>0.007710133592705382</v>
+        <v>0.8930124389999313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.52059044173811</v>
+        <v>7.221999999999999</v>
       </c>
       <c r="N8">
-        <v>2.52059044173811</v>
+        <v>21.666</v>
       </c>
       <c r="O8">
-        <v>0.003570938832631179</v>
+        <v>0.009636415263395938</v>
       </c>
       <c r="P8">
-        <v>0.003570938832631179</v>
+        <v>0.009636415263395938</v>
       </c>
       <c r="Q8">
-        <v>5.01074213763762</v>
+        <v>1699.587949673333</v>
       </c>
       <c r="R8">
-        <v>5.01074213763762</v>
+        <v>15296.29154706</v>
       </c>
       <c r="S8">
-        <v>2.753241545096579E-05</v>
+        <v>0.008605438697581375</v>
       </c>
       <c r="T8">
-        <v>2.753241545096579E-05</v>
+        <v>0.008605438697581371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.98792396204692</v>
+        <v>235.3348033333333</v>
       </c>
       <c r="H9">
-        <v>1.98792396204692</v>
+        <v>706.00441</v>
       </c>
       <c r="I9">
-        <v>0.007710133592705382</v>
+        <v>0.8930124389999315</v>
       </c>
       <c r="J9">
-        <v>0.007710133592705382</v>
+        <v>0.8930124389999313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>190.705679584673</v>
+        <v>191.3804573333333</v>
       </c>
       <c r="N9">
-        <v>190.705679584673</v>
+        <v>574.141372</v>
       </c>
       <c r="O9">
-        <v>0.2701741249017177</v>
+        <v>0.2553616117644182</v>
       </c>
       <c r="P9">
-        <v>0.2701741249017177</v>
+        <v>0.2553616117644183</v>
       </c>
       <c r="Q9">
-        <v>379.1083901448135</v>
+        <v>45038.48228838339</v>
       </c>
       <c r="R9">
-        <v>379.1083901448135</v>
+        <v>405346.3405954505</v>
       </c>
       <c r="S9">
-        <v>0.002083078596284513</v>
+        <v>0.2280410957486967</v>
       </c>
       <c r="T9">
-        <v>0.002083078596284513</v>
+        <v>0.2280410957486967</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.98792396204692</v>
+        <v>235.3348033333333</v>
       </c>
       <c r="H10">
-        <v>1.98792396204692</v>
+        <v>706.00441</v>
       </c>
       <c r="I10">
-        <v>0.007710133592705382</v>
+        <v>0.8930124389999315</v>
       </c>
       <c r="J10">
-        <v>0.007710133592705382</v>
+        <v>0.8930124389999313</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>115.281806503161</v>
+        <v>133.9193763333333</v>
       </c>
       <c r="N10">
-        <v>115.281806503161</v>
+        <v>401.758129</v>
       </c>
       <c r="O10">
-        <v>0.1633205747039737</v>
+        <v>0.1786904904684296</v>
       </c>
       <c r="P10">
-        <v>0.1633205747039737</v>
+        <v>0.1786904904684296</v>
       </c>
       <c r="Q10">
-        <v>229.1714655356902</v>
+        <v>31515.89009192765</v>
       </c>
       <c r="R10">
-        <v>229.1714655356902</v>
+        <v>283643.0108273489</v>
       </c>
       <c r="S10">
-        <v>0.001259223449405057</v>
+        <v>0.1595728307193063</v>
       </c>
       <c r="T10">
-        <v>0.001259223449405057</v>
+        <v>0.1595728307193063</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.98792396204692</v>
+        <v>235.3348033333333</v>
       </c>
       <c r="H11">
-        <v>1.98792396204692</v>
+        <v>706.00441</v>
       </c>
       <c r="I11">
-        <v>0.007710133592705382</v>
+        <v>0.8930124389999315</v>
       </c>
       <c r="J11">
-        <v>0.007710133592705382</v>
+        <v>0.8930124389999313</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>133.445931852834</v>
+        <v>144.2634733333333</v>
       </c>
       <c r="N11">
-        <v>133.445931852834</v>
+        <v>432.79042</v>
       </c>
       <c r="O11">
-        <v>0.1890538233499539</v>
+        <v>0.1924927632760795</v>
       </c>
       <c r="P11">
-        <v>0.1890538233499539</v>
+        <v>0.1924927632760795</v>
       </c>
       <c r="Q11">
-        <v>265.280365567929</v>
+        <v>33950.21612508358</v>
       </c>
       <c r="R11">
-        <v>265.280365567929</v>
+        <v>305551.9451257522</v>
       </c>
       <c r="S11">
-        <v>0.001457630234239869</v>
+        <v>0.1718984320230082</v>
       </c>
       <c r="T11">
-        <v>0.001457630234239869</v>
+        <v>0.1718984320230082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.98792396204692</v>
+        <v>235.3348033333333</v>
       </c>
       <c r="H12">
-        <v>1.98792396204692</v>
+        <v>706.00441</v>
       </c>
       <c r="I12">
-        <v>0.007710133592705382</v>
+        <v>0.8930124389999315</v>
       </c>
       <c r="J12">
-        <v>0.007710133592705382</v>
+        <v>0.8930124389999313</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.602362159017</v>
+        <v>147.2274146666667</v>
       </c>
       <c r="N12">
-        <v>144.602362159017</v>
+        <v>441.682244</v>
       </c>
       <c r="O12">
-        <v>0.2048592194008969</v>
+        <v>0.1964475915098574</v>
       </c>
       <c r="P12">
-        <v>0.2048592194008969</v>
+        <v>0.1964475915098574</v>
       </c>
       <c r="Q12">
-        <v>287.4585007044967</v>
+        <v>34647.73467585511</v>
       </c>
       <c r="R12">
-        <v>287.4585007044967</v>
+        <v>311829.6120826961</v>
       </c>
       <c r="S12">
-        <v>0.001579491949278257</v>
+        <v>0.17543014282988</v>
       </c>
       <c r="T12">
-        <v>0.001579491949278257</v>
+        <v>0.17543014282988</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.98792396204692</v>
+        <v>235.3348033333333</v>
       </c>
       <c r="H13">
-        <v>1.98792396204692</v>
+        <v>706.00441</v>
       </c>
       <c r="I13">
-        <v>0.007710133592705382</v>
+        <v>0.8930124389999315</v>
       </c>
       <c r="J13">
-        <v>0.007710133592705382</v>
+        <v>0.8930124389999313</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>119.305745803163</v>
+        <v>125.4360933333333</v>
       </c>
       <c r="N13">
-        <v>119.305745803163</v>
+        <v>376.30828</v>
       </c>
       <c r="O13">
-        <v>0.1690213188108265</v>
+        <v>0.1673711277178193</v>
       </c>
       <c r="P13">
-        <v>0.1690213188108265</v>
+        <v>0.1673711277178193</v>
       </c>
       <c r="Q13">
-        <v>237.1707508919865</v>
+        <v>29519.47835550164</v>
       </c>
       <c r="R13">
-        <v>237.1707508919865</v>
+        <v>265675.3051995148</v>
       </c>
       <c r="S13">
-        <v>0.00130317694804672</v>
+        <v>0.1494644989814588</v>
       </c>
       <c r="T13">
-        <v>0.00130317694804672</v>
+        <v>0.1494644989814588</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.07752782215138</v>
+        <v>4.209790666666667</v>
       </c>
       <c r="H14">
-        <v>3.07752782215138</v>
+        <v>12.629372</v>
       </c>
       <c r="I14">
-        <v>0.0119361459980705</v>
+        <v>0.01597466833494347</v>
       </c>
       <c r="J14">
-        <v>0.0119361459980705</v>
+        <v>0.01597466833494346</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.52059044173811</v>
+        <v>7.221999999999999</v>
       </c>
       <c r="N14">
-        <v>2.52059044173811</v>
+        <v>21.666</v>
       </c>
       <c r="O14">
-        <v>0.003570938832631179</v>
+        <v>0.009636415263395938</v>
       </c>
       <c r="P14">
-        <v>0.003570938832631179</v>
+        <v>0.009636415263395938</v>
       </c>
       <c r="Q14">
-        <v>7.757187212697871</v>
+        <v>30.40310819466666</v>
       </c>
       <c r="R14">
-        <v>7.757187212697871</v>
+        <v>273.6279737519999</v>
       </c>
       <c r="S14">
-        <v>4.262324725646518E-05</v>
+        <v>0.000153938537770537</v>
       </c>
       <c r="T14">
-        <v>4.262324725646518E-05</v>
+        <v>0.0001539385377705369</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.07752782215138</v>
+        <v>4.209790666666667</v>
       </c>
       <c r="H15">
-        <v>3.07752782215138</v>
+        <v>12.629372</v>
       </c>
       <c r="I15">
-        <v>0.0119361459980705</v>
+        <v>0.01597466833494347</v>
       </c>
       <c r="J15">
-        <v>0.0119361459980705</v>
+        <v>0.01597466833494346</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>190.705679584673</v>
+        <v>191.3804573333333</v>
       </c>
       <c r="N15">
-        <v>190.705679584673</v>
+        <v>574.141372</v>
       </c>
       <c r="O15">
-        <v>0.2701741249017177</v>
+        <v>0.2553616117644182</v>
       </c>
       <c r="P15">
-        <v>0.2701741249017177</v>
+        <v>0.2553616117644183</v>
       </c>
       <c r="Q15">
-        <v>586.9020347641176</v>
+        <v>805.6716630642649</v>
       </c>
       <c r="R15">
-        <v>586.9020347641176</v>
+        <v>7251.044967578385</v>
       </c>
       <c r="S15">
-        <v>0.003224837799727836</v>
+        <v>0.004079317053413179</v>
       </c>
       <c r="T15">
-        <v>0.003224837799727836</v>
+        <v>0.004079317053413178</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.07752782215138</v>
+        <v>4.209790666666667</v>
       </c>
       <c r="H16">
-        <v>3.07752782215138</v>
+        <v>12.629372</v>
       </c>
       <c r="I16">
-        <v>0.0119361459980705</v>
+        <v>0.01597466833494347</v>
       </c>
       <c r="J16">
-        <v>0.0119361459980705</v>
+        <v>0.01597466833494346</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>115.281806503161</v>
+        <v>133.9193763333333</v>
       </c>
       <c r="N16">
-        <v>115.281806503161</v>
+        <v>401.758129</v>
       </c>
       <c r="O16">
-        <v>0.1633205747039737</v>
+        <v>0.1786904904684296</v>
       </c>
       <c r="P16">
-        <v>0.1633205747039737</v>
+        <v>0.1786904904684296</v>
       </c>
       <c r="Q16">
-        <v>354.7829669013499</v>
+        <v>563.7725405738876</v>
       </c>
       <c r="R16">
-        <v>354.7829669013499</v>
+        <v>5073.952865164988</v>
       </c>
       <c r="S16">
-        <v>0.00194941822415541</v>
+        <v>0.002854521319841539</v>
       </c>
       <c r="T16">
-        <v>0.00194941822415541</v>
+        <v>0.002854521319841537</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.07752782215138</v>
+        <v>4.209790666666667</v>
       </c>
       <c r="H17">
-        <v>3.07752782215138</v>
+        <v>12.629372</v>
       </c>
       <c r="I17">
-        <v>0.0119361459980705</v>
+        <v>0.01597466833494347</v>
       </c>
       <c r="J17">
-        <v>0.0119361459980705</v>
+        <v>0.01597466833494346</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>133.445931852834</v>
+        <v>144.2634733333333</v>
       </c>
       <c r="N17">
-        <v>133.445931852834</v>
+        <v>432.79042</v>
       </c>
       <c r="O17">
-        <v>0.1890538233499539</v>
+        <v>0.1924927632760795</v>
       </c>
       <c r="P17">
-        <v>0.1890538233499539</v>
+        <v>0.1924927632760795</v>
       </c>
       <c r="Q17">
-        <v>410.6835680300138</v>
+        <v>607.3190235795822</v>
       </c>
       <c r="R17">
-        <v>410.6835680300138</v>
+        <v>5465.87121221624</v>
       </c>
       <c r="S17">
-        <v>0.002256574036998479</v>
+        <v>0.003075008050212156</v>
       </c>
       <c r="T17">
-        <v>0.002256574036998479</v>
+        <v>0.003075008050212155</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.07752782215138</v>
+        <v>4.209790666666667</v>
       </c>
       <c r="H18">
-        <v>3.07752782215138</v>
+        <v>12.629372</v>
       </c>
       <c r="I18">
-        <v>0.0119361459980705</v>
+        <v>0.01597466833494347</v>
       </c>
       <c r="J18">
-        <v>0.0119361459980705</v>
+        <v>0.01597466833494346</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>144.602362159017</v>
+        <v>147.2274146666667</v>
       </c>
       <c r="N18">
-        <v>144.602362159017</v>
+        <v>441.682244</v>
       </c>
       <c r="O18">
-        <v>0.2048592194008969</v>
+        <v>0.1964475915098574</v>
       </c>
       <c r="P18">
-        <v>0.2048592194008969</v>
+        <v>0.1964475915098574</v>
       </c>
       <c r="Q18">
-        <v>445.0177926931847</v>
+        <v>619.7965961411965</v>
       </c>
       <c r="R18">
-        <v>445.0177926931847</v>
+        <v>5578.169365270768</v>
       </c>
       <c r="S18">
-        <v>0.002445229551819862</v>
+        <v>0.003138185119568427</v>
       </c>
       <c r="T18">
-        <v>0.002445229551819862</v>
+        <v>0.003138185119568426</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.07752782215138</v>
+        <v>4.209790666666667</v>
       </c>
       <c r="H19">
-        <v>3.07752782215138</v>
+        <v>12.629372</v>
       </c>
       <c r="I19">
-        <v>0.0119361459980705</v>
+        <v>0.01597466833494347</v>
       </c>
       <c r="J19">
-        <v>0.0119361459980705</v>
+        <v>0.01597466833494346</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>119.305745803163</v>
+        <v>125.4360933333333</v>
       </c>
       <c r="N19">
-        <v>119.305745803163</v>
+        <v>376.30828</v>
       </c>
       <c r="O19">
-        <v>0.1690213188108265</v>
+        <v>0.1673711277178193</v>
       </c>
       <c r="P19">
-        <v>0.1690213188108265</v>
+        <v>0.1673711277178193</v>
       </c>
       <c r="Q19">
-        <v>367.1667520517544</v>
+        <v>528.0596949777955</v>
       </c>
       <c r="R19">
-        <v>367.1667520517544</v>
+        <v>4752.53725480016</v>
       </c>
       <c r="S19">
-        <v>0.002017463138112444</v>
+        <v>0.002673698254137626</v>
       </c>
       <c r="T19">
-        <v>0.002017463138112444</v>
+        <v>0.002673698254137625</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>17.6769462338523</v>
+        <v>0.410825</v>
       </c>
       <c r="H20">
-        <v>17.6769462338523</v>
+        <v>1.232475</v>
       </c>
       <c r="I20">
-        <v>0.06855977370167374</v>
+        <v>0.001558935737747645</v>
       </c>
       <c r="J20">
-        <v>0.06855977370167374</v>
+        <v>0.001558935737747644</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.52059044173811</v>
+        <v>7.221999999999999</v>
       </c>
       <c r="N20">
-        <v>2.52059044173811</v>
+        <v>21.666</v>
       </c>
       <c r="O20">
-        <v>0.003570938832631179</v>
+        <v>0.009636415263395938</v>
       </c>
       <c r="P20">
-        <v>0.003570938832631179</v>
+        <v>0.009636415263395938</v>
       </c>
       <c r="Q20">
-        <v>44.55634171616659</v>
+        <v>2.966978149999999</v>
       </c>
       <c r="R20">
-        <v>44.55634171616659</v>
+        <v>26.70280335</v>
       </c>
       <c r="S20">
-        <v>0.0002448227582677126</v>
+        <v>1.502255213788481E-05</v>
       </c>
       <c r="T20">
-        <v>0.0002448227582677126</v>
+        <v>1.50225521378848E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>17.6769462338523</v>
+        <v>0.410825</v>
       </c>
       <c r="H21">
-        <v>17.6769462338523</v>
+        <v>1.232475</v>
       </c>
       <c r="I21">
-        <v>0.06855977370167374</v>
+        <v>0.001558935737747645</v>
       </c>
       <c r="J21">
-        <v>0.06855977370167374</v>
+        <v>0.001558935737747644</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>190.705679584673</v>
+        <v>191.3804573333333</v>
       </c>
       <c r="N21">
-        <v>190.705679584673</v>
+        <v>574.141372</v>
       </c>
       <c r="O21">
-        <v>0.2701741249017177</v>
+        <v>0.2553616117644182</v>
       </c>
       <c r="P21">
-        <v>0.2701741249017177</v>
+        <v>0.2553616117644183</v>
       </c>
       <c r="Q21">
-        <v>3371.094044508528</v>
+        <v>78.62387638396667</v>
       </c>
       <c r="R21">
-        <v>3371.094044508528</v>
+        <v>707.6148874557</v>
       </c>
       <c r="S21">
-        <v>0.0185230768633095</v>
+        <v>0.0003980923426283909</v>
       </c>
       <c r="T21">
-        <v>0.0185230768633095</v>
+        <v>0.0003980923426283909</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>17.6769462338523</v>
+        <v>0.410825</v>
       </c>
       <c r="H22">
-        <v>17.6769462338523</v>
+        <v>1.232475</v>
       </c>
       <c r="I22">
-        <v>0.06855977370167374</v>
+        <v>0.001558935737747645</v>
       </c>
       <c r="J22">
-        <v>0.06855977370167374</v>
+        <v>0.001558935737747644</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>115.281806503161</v>
+        <v>133.9193763333333</v>
       </c>
       <c r="N22">
-        <v>115.281806503161</v>
+        <v>401.758129</v>
       </c>
       <c r="O22">
-        <v>0.1633205747039737</v>
+        <v>0.1786904904684296</v>
       </c>
       <c r="P22">
-        <v>0.1633205747039737</v>
+        <v>0.1786904904684296</v>
       </c>
       <c r="Q22">
-        <v>2037.830295297741</v>
+        <v>55.01742778214167</v>
       </c>
       <c r="R22">
-        <v>2037.830295297741</v>
+        <v>495.156850039275</v>
       </c>
       <c r="S22">
-        <v>0.01119722164253174</v>
+        <v>0.0002785669915868897</v>
       </c>
       <c r="T22">
-        <v>0.01119722164253174</v>
+        <v>0.0002785669915868896</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>17.6769462338523</v>
+        <v>0.410825</v>
       </c>
       <c r="H23">
-        <v>17.6769462338523</v>
+        <v>1.232475</v>
       </c>
       <c r="I23">
-        <v>0.06855977370167374</v>
+        <v>0.001558935737747645</v>
       </c>
       <c r="J23">
-        <v>0.06855977370167374</v>
+        <v>0.001558935737747644</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>133.445931852834</v>
+        <v>144.2634733333333</v>
       </c>
       <c r="N23">
-        <v>133.445931852834</v>
+        <v>432.79042</v>
       </c>
       <c r="O23">
-        <v>0.1890538233499539</v>
+        <v>0.1924927632760795</v>
       </c>
       <c r="P23">
-        <v>0.1890538233499539</v>
+        <v>0.1924927632760795</v>
       </c>
       <c r="Q23">
-        <v>2358.916562488865</v>
+        <v>59.26704143216667</v>
       </c>
       <c r="R23">
-        <v>2358.916562488865</v>
+        <v>533.4033728895</v>
       </c>
       <c r="S23">
-        <v>0.01296148734630904</v>
+        <v>0.0003000838479288778</v>
       </c>
       <c r="T23">
-        <v>0.01296148734630904</v>
+        <v>0.0003000838479288777</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>17.6769462338523</v>
+        <v>0.410825</v>
       </c>
       <c r="H24">
-        <v>17.6769462338523</v>
+        <v>1.232475</v>
       </c>
       <c r="I24">
-        <v>0.06855977370167374</v>
+        <v>0.001558935737747645</v>
       </c>
       <c r="J24">
-        <v>0.06855977370167374</v>
+        <v>0.001558935737747644</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>144.602362159017</v>
+        <v>147.2274146666667</v>
       </c>
       <c r="N24">
-        <v>144.602362159017</v>
+        <v>441.682244</v>
       </c>
       <c r="O24">
-        <v>0.2048592194008969</v>
+        <v>0.1964475915098574</v>
       </c>
       <c r="P24">
-        <v>0.2048592194008969</v>
+        <v>0.1964475915098574</v>
       </c>
       <c r="Q24">
-        <v>2556.128181172981</v>
+        <v>60.48470263043334</v>
       </c>
       <c r="R24">
-        <v>2556.128181172981</v>
+        <v>544.3623236739001</v>
       </c>
       <c r="S24">
-        <v>0.01404510172282702</v>
+        <v>0.0003062491709991674</v>
       </c>
       <c r="T24">
-        <v>0.01404510172282702</v>
+        <v>0.0003062491709991674</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.410825</v>
+      </c>
+      <c r="H25">
+        <v>1.232475</v>
+      </c>
+      <c r="I25">
+        <v>0.001558935737747645</v>
+      </c>
+      <c r="J25">
+        <v>0.001558935737747644</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>125.4360933333333</v>
+      </c>
+      <c r="N25">
+        <v>376.30828</v>
+      </c>
+      <c r="O25">
+        <v>0.1673711277178193</v>
+      </c>
+      <c r="P25">
+        <v>0.1673711277178193</v>
+      </c>
+      <c r="Q25">
+        <v>51.53228304366666</v>
+      </c>
+      <c r="R25">
+        <v>463.7905473929999</v>
+      </c>
+      <c r="S25">
+        <v>0.0002609208324664338</v>
+      </c>
+      <c r="T25">
+        <v>0.0002609208324664338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.296826</v>
+      </c>
+      <c r="H26">
+        <v>9.890478</v>
+      </c>
+      <c r="I26">
+        <v>0.01251028995931508</v>
+      </c>
+      <c r="J26">
+        <v>0.01251028995931507</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.221999999999999</v>
+      </c>
+      <c r="N26">
+        <v>21.666</v>
+      </c>
+      <c r="O26">
+        <v>0.009636415263395938</v>
+      </c>
+      <c r="P26">
+        <v>0.009636415263395938</v>
+      </c>
+      <c r="Q26">
+        <v>23.809677372</v>
+      </c>
+      <c r="R26">
+        <v>214.287096348</v>
+      </c>
+      <c r="S26">
+        <v>0.0001205543491134527</v>
+      </c>
+      <c r="T26">
+        <v>0.0001205543491134527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.296826</v>
+      </c>
+      <c r="H27">
+        <v>9.890478</v>
+      </c>
+      <c r="I27">
+        <v>0.01251028995931508</v>
+      </c>
+      <c r="J27">
+        <v>0.01251028995931507</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>191.3804573333333</v>
+      </c>
+      <c r="N27">
+        <v>574.141372</v>
+      </c>
+      <c r="O27">
+        <v>0.2553616117644182</v>
+      </c>
+      <c r="P27">
+        <v>0.2553616117644183</v>
+      </c>
+      <c r="Q27">
+        <v>630.9480676284239</v>
+      </c>
+      <c r="R27">
+        <v>5678.532608655816</v>
+      </c>
+      <c r="S27">
+        <v>0.003194647807650916</v>
+      </c>
+      <c r="T27">
+        <v>0.003194647807650916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.296826</v>
+      </c>
+      <c r="H28">
+        <v>9.890478</v>
+      </c>
+      <c r="I28">
+        <v>0.01251028995931508</v>
+      </c>
+      <c r="J28">
+        <v>0.01251028995931507</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>133.9193763333333</v>
+      </c>
+      <c r="N28">
+        <v>401.758129</v>
+      </c>
+      <c r="O28">
+        <v>0.1786904904684296</v>
+      </c>
+      <c r="P28">
+        <v>0.1786904904684296</v>
+      </c>
+      <c r="Q28">
+        <v>441.508881799518</v>
+      </c>
+      <c r="R28">
+        <v>3973.579936195662</v>
+      </c>
+      <c r="S28">
+        <v>0.002235469848732281</v>
+      </c>
+      <c r="T28">
+        <v>0.00223546984873228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.296826</v>
+      </c>
+      <c r="H29">
+        <v>9.890478</v>
+      </c>
+      <c r="I29">
+        <v>0.01251028995931508</v>
+      </c>
+      <c r="J29">
+        <v>0.01251028995931507</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>144.2634733333333</v>
+      </c>
+      <c r="N29">
+        <v>432.79042</v>
+      </c>
+      <c r="O29">
+        <v>0.1924927632760795</v>
+      </c>
+      <c r="P29">
+        <v>0.1924927632760795</v>
+      </c>
+      <c r="Q29">
+        <v>475.61156973564</v>
+      </c>
+      <c r="R29">
+        <v>4280.504127620759</v>
+      </c>
+      <c r="S29">
+        <v>0.002408140283653552</v>
+      </c>
+      <c r="T29">
+        <v>0.002408140283653551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.296826</v>
+      </c>
+      <c r="H30">
+        <v>9.890478</v>
+      </c>
+      <c r="I30">
+        <v>0.01251028995931508</v>
+      </c>
+      <c r="J30">
+        <v>0.01251028995931507</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>147.2274146666667</v>
+      </c>
+      <c r="N30">
+        <v>441.682244</v>
+      </c>
+      <c r="O30">
+        <v>0.1964475915098574</v>
+      </c>
+      <c r="P30">
+        <v>0.1964475915098574</v>
+      </c>
+      <c r="Q30">
+        <v>485.383168585848</v>
+      </c>
+      <c r="R30">
+        <v>4368.448517272632</v>
+      </c>
+      <c r="S30">
+        <v>0.002457616331597398</v>
+      </c>
+      <c r="T30">
+        <v>0.002457616331597398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.296826</v>
+      </c>
+      <c r="H31">
+        <v>9.890478</v>
+      </c>
+      <c r="I31">
+        <v>0.01251028995931508</v>
+      </c>
+      <c r="J31">
+        <v>0.01251028995931507</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>125.4360933333333</v>
+      </c>
+      <c r="N31">
+        <v>376.30828</v>
+      </c>
+      <c r="O31">
+        <v>0.1673711277178193</v>
+      </c>
+      <c r="P31">
+        <v>0.1673711277178193</v>
+      </c>
+      <c r="Q31">
+        <v>413.5409738397599</v>
+      </c>
+      <c r="R31">
+        <v>3721.86876455784</v>
+      </c>
+      <c r="S31">
+        <v>0.002093861338567476</v>
+      </c>
+      <c r="T31">
+        <v>0.002093861338567475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>17.96099766666667</v>
+      </c>
+      <c r="H32">
+        <v>53.882993</v>
+      </c>
+      <c r="I32">
+        <v>0.06815564084018433</v>
+      </c>
+      <c r="J32">
+        <v>0.0681556408401843</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>7.221999999999999</v>
+      </c>
+      <c r="N32">
+        <v>21.666</v>
+      </c>
+      <c r="O32">
+        <v>0.009636415263395938</v>
+      </c>
+      <c r="P32">
+        <v>0.009636415263395938</v>
+      </c>
+      <c r="Q32">
+        <v>129.7143251486667</v>
+      </c>
+      <c r="R32">
+        <v>1167.428926338</v>
+      </c>
+      <c r="S32">
+        <v>0.0006567760576788838</v>
+      </c>
+      <c r="T32">
+        <v>0.0006567760576788836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>17.96099766666667</v>
+      </c>
+      <c r="H33">
+        <v>53.882993</v>
+      </c>
+      <c r="I33">
+        <v>0.06815564084018433</v>
+      </c>
+      <c r="J33">
+        <v>0.0681556408401843</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>191.3804573333333</v>
+      </c>
+      <c r="N33">
+        <v>574.141372</v>
+      </c>
+      <c r="O33">
+        <v>0.2553616117644182</v>
+      </c>
+      <c r="P33">
+        <v>0.2553616117644183</v>
+      </c>
+      <c r="Q33">
+        <v>3437.3839476096</v>
+      </c>
+      <c r="R33">
+        <v>30936.4555284864</v>
+      </c>
+      <c r="S33">
+        <v>0.01740433429578628</v>
+      </c>
+      <c r="T33">
+        <v>0.01740433429578627</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>17.96099766666667</v>
+      </c>
+      <c r="H34">
+        <v>53.882993</v>
+      </c>
+      <c r="I34">
+        <v>0.06815564084018433</v>
+      </c>
+      <c r="J34">
+        <v>0.0681556408401843</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>133.9193763333333</v>
+      </c>
+      <c r="N34">
+        <v>401.758129</v>
+      </c>
+      <c r="O34">
+        <v>0.1786904904684296</v>
+      </c>
+      <c r="P34">
+        <v>0.1786904904684296</v>
+      </c>
+      <c r="Q34">
+        <v>2405.325605844455</v>
+      </c>
+      <c r="R34">
+        <v>21647.9304526001</v>
+      </c>
+      <c r="S34">
+        <v>0.01217876488992266</v>
+      </c>
+      <c r="T34">
+        <v>0.01217876488992266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>17.6769462338523</v>
-      </c>
-      <c r="H25">
-        <v>17.6769462338523</v>
-      </c>
-      <c r="I25">
-        <v>0.06855977370167374</v>
-      </c>
-      <c r="J25">
-        <v>0.06855977370167374</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>119.305745803163</v>
-      </c>
-      <c r="N25">
-        <v>119.305745803163</v>
-      </c>
-      <c r="O25">
-        <v>0.1690213188108265</v>
-      </c>
-      <c r="P25">
-        <v>0.1690213188108265</v>
-      </c>
-      <c r="Q25">
-        <v>2108.961253952162</v>
-      </c>
-      <c r="R25">
-        <v>2108.961253952162</v>
-      </c>
-      <c r="S25">
-        <v>0.01158806336842872</v>
-      </c>
-      <c r="T25">
-        <v>0.01158806336842872</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>17.96099766666667</v>
+      </c>
+      <c r="H35">
+        <v>53.882993</v>
+      </c>
+      <c r="I35">
+        <v>0.06815564084018433</v>
+      </c>
+      <c r="J35">
+        <v>0.0681556408401843</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>144.2634733333333</v>
+      </c>
+      <c r="N35">
+        <v>432.79042</v>
+      </c>
+      <c r="O35">
+        <v>0.1924927632760795</v>
+      </c>
+      <c r="P35">
+        <v>0.1924927632760795</v>
+      </c>
+      <c r="Q35">
+        <v>2591.115907925229</v>
+      </c>
+      <c r="R35">
+        <v>23320.04317132706</v>
+      </c>
+      <c r="S35">
+        <v>0.0131194676381791</v>
+      </c>
+      <c r="T35">
+        <v>0.0131194676381791</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>17.96099766666667</v>
+      </c>
+      <c r="H36">
+        <v>53.882993</v>
+      </c>
+      <c r="I36">
+        <v>0.06815564084018433</v>
+      </c>
+      <c r="J36">
+        <v>0.0681556408401843</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>147.2274146666667</v>
+      </c>
+      <c r="N36">
+        <v>441.682244</v>
+      </c>
+      <c r="O36">
+        <v>0.1964475915098574</v>
+      </c>
+      <c r="P36">
+        <v>0.1964475915098574</v>
+      </c>
+      <c r="Q36">
+        <v>2644.351251297366</v>
+      </c>
+      <c r="R36">
+        <v>23799.16126167629</v>
+      </c>
+      <c r="S36">
+        <v>0.01338901149086508</v>
+      </c>
+      <c r="T36">
+        <v>0.01338901149086508</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>17.96099766666667</v>
+      </c>
+      <c r="H37">
+        <v>53.882993</v>
+      </c>
+      <c r="I37">
+        <v>0.06815564084018433</v>
+      </c>
+      <c r="J37">
+        <v>0.0681556408401843</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>125.4360933333333</v>
+      </c>
+      <c r="N37">
+        <v>376.30828</v>
+      </c>
+      <c r="O37">
+        <v>0.1673711277178193</v>
+      </c>
+      <c r="P37">
+        <v>0.1673711277178193</v>
+      </c>
+      <c r="Q37">
+        <v>2252.957379675782</v>
+      </c>
+      <c r="R37">
+        <v>20276.61641708204</v>
+      </c>
+      <c r="S37">
+        <v>0.01140728646775231</v>
+      </c>
+      <c r="T37">
+        <v>0.01140728646775231</v>
       </c>
     </row>
   </sheetData>
